--- a/templates/QARSF/RSTK-9613-SYDATA-Labor Booking Reversal.xlsx
+++ b/templates/QARSF/RSTK-9613-SYDATA-Labor Booking Reversal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QARSF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4178CEFD-6833-48AF-B87C-681C65A45ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8683E572-7948-498C-A7E4-16D499FD6D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{77C97FEF-7E82-40F3-B240-8FA62379481A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Background Processing</t>
   </si>
@@ -67,6 +67,30 @@
   </si>
   <si>
     <t>Pro-Lot Track (Lot Track)</t>
+  </si>
+  <si>
+    <t>Labor Booking User</t>
+  </si>
+  <si>
+    <t>SiteID</t>
+  </si>
+  <si>
+    <t>Location ID</t>
+  </si>
+  <si>
+    <t>Location Number</t>
+  </si>
+  <si>
+    <t>a811K0000004fpN</t>
+  </si>
+  <si>
+    <t>a7q410000004I1W</t>
+  </si>
+  <si>
+    <t>a7Z4100000000hb</t>
+  </si>
+  <si>
+    <t>SY_ReceiptLoc</t>
   </si>
 </sst>
 </file>
@@ -426,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146DD3D7-6B9F-488C-B01E-10184532587E}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,7 +466,7 @@
     <col min="7" max="7" width="19.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -464,8 +488,20 @@
       <c r="G1" t="s">
         <v>0</v>
       </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -484,8 +520,20 @@
       <c r="G2" t="b">
         <v>1</v>
       </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -503,6 +551,18 @@
       </c>
       <c r="G3" t="b">
         <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/templates/QARSF/RSTK-9613-SYDATA-Labor Booking Reversal.xlsx
+++ b/templates/QARSF/RSTK-9613-SYDATA-Labor Booking Reversal.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QARSF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8683E572-7948-498C-A7E4-16D499FD6D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4178CEFD-6833-48AF-B87C-681C65A45ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{77C97FEF-7E82-40F3-B240-8FA62379481A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Background Processing</t>
   </si>
@@ -67,30 +67,6 @@
   </si>
   <si>
     <t>Pro-Lot Track (Lot Track)</t>
-  </si>
-  <si>
-    <t>Labor Booking User</t>
-  </si>
-  <si>
-    <t>SiteID</t>
-  </si>
-  <si>
-    <t>Location ID</t>
-  </si>
-  <si>
-    <t>Location Number</t>
-  </si>
-  <si>
-    <t>a811K0000004fpN</t>
-  </si>
-  <si>
-    <t>a7q410000004I1W</t>
-  </si>
-  <si>
-    <t>a7Z4100000000hb</t>
-  </si>
-  <si>
-    <t>SY_ReceiptLoc</t>
   </si>
 </sst>
 </file>
@@ -450,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146DD3D7-6B9F-488C-B01E-10184532587E}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,7 +442,7 @@
     <col min="7" max="7" width="19.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -488,20 +464,8 @@
       <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -520,20 +484,8 @@
       <c r="G2" t="b">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -551,18 +503,6 @@
       </c>
       <c r="G3" t="b">
         <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
